--- a/public/modified_brawler_data.xlsx
+++ b/public/modified_brawler_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443908C-4483-4956-BEAE-86C2007E7550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
   <si>
     <t>Brawler</t>
   </si>
@@ -133,9 +139,6 @@
     <t>CLANCY</t>
   </si>
   <si>
-    <t>ANGELO</t>
-  </si>
-  <si>
     <t>AMBER</t>
   </si>
   <si>
@@ -308,13 +311,55 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Assasin</t>
+  </si>
+  <si>
+    <t>Damage Dealer</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Marksmen</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -362,13 +407,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +436,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +488,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -455,6 +522,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -489,9 +557,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,14 +733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,28 +761,34 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.775763619193526</v>
+        <v>0.77576361919352599</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>0.0004997305264365</v>
+        <v>4.9973052643649996E-4</v>
       </c>
       <c r="E2">
         <v>143898</v>
       </c>
       <c r="F2">
-        <v>111630.83327471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>111630.83327471001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -722,36 +799,42 @@
         <v>97</v>
       </c>
       <c r="D3">
-        <v>0.0108516742012939</v>
+        <v>1.08516742012939E-2</v>
       </c>
       <c r="E3">
         <v>3275417</v>
       </c>
       <c r="F3">
-        <v>2386111.77564953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2386111.7756495299</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.7192274318027274</v>
+        <v>0.71922743180272741</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>0.0363167359205577</v>
+        <v>3.6316735920557702E-2</v>
       </c>
       <c r="E4">
         <v>10966722</v>
       </c>
       <c r="F4">
-        <v>7887567.29935447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7887567.2993544703</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -759,50 +842,56 @@
         <v>0.7177685088412028</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>0.0127390829165989</v>
+        <v>1.27390829165989E-2</v>
       </c>
       <c r="E5">
         <v>3768304</v>
       </c>
       <c r="F5">
-        <v>2704769.94294034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2704769.9429403399</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6626538728263588</v>
+        <v>0.66265387282635879</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>0.0076664517722262</v>
+        <v>7.6664517722262E-3</v>
       </c>
       <c r="E6">
         <v>2277715</v>
       </c>
       <c r="F6">
-        <v>1509336.66594469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1509336.6659446899</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.6618616043620902</v>
+        <v>0.66186160436209018</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>0.007988968711543001</v>
+        <v>7.9889687115430007E-3</v>
       </c>
       <c r="E7">
         <v>2467739</v>
@@ -810,8 +899,11 @@
       <c r="F7">
         <v>1633301.6936869</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -822,47 +914,50 @@
         <v>97</v>
       </c>
       <c r="D8">
-        <v>0.0038512463046844</v>
+        <v>3.8512463046844001E-3</v>
       </c>
       <c r="E8">
         <v>1165619</v>
       </c>
       <c r="F8">
-        <v>769769.66596811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>769769.66596810997</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6602405687387299</v>
+        <v>0.66024056873872994</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>0.0039009135234324</v>
+        <v>3.9009135234324001E-3</v>
       </c>
       <c r="E9">
         <v>1192425</v>
       </c>
       <c r="F9">
-        <v>787287.36017828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>787287.36017828004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6581547020477083</v>
+        <v>0.65815470204770832</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D10">
-        <v>0.0089607225518945</v>
+        <v>8.9607225518944997E-3</v>
       </c>
       <c r="E10">
         <v>2685612</v>
@@ -871,18 +966,18 @@
         <v>1767548.16567575</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.6571183646730501</v>
+        <v>0.65711836467305007</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>0.0040200293169567</v>
+        <v>4.0200293169567001E-3</v>
       </c>
       <c r="E11">
         <v>1202279</v>
@@ -891,58 +986,58 @@
         <v>790039.61036075</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.6566442733595073</v>
+        <v>0.65664427335950726</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>0.0103914796729541</v>
+        <v>1.0391479672954101E-2</v>
       </c>
       <c r="E12">
         <v>3138752</v>
       </c>
       <c r="F12">
-        <v>2061043.5262957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>2061043.5262957001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.6561851835450989</v>
+        <v>0.65618518354509892</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>0.0035821030778436</v>
+        <v>3.5821030778436002E-3</v>
       </c>
       <c r="E13">
         <v>1071090</v>
       </c>
       <c r="F13">
-        <v>702833.38824332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>702833.38824332005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.6542398937819118</v>
+        <v>0.65423989378191183</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>0.0102245406259071</v>
+        <v>1.0224540625907099E-2</v>
       </c>
       <c r="E14">
         <v>3078443</v>
@@ -951,18 +1046,18 @@
         <v>2014040.22133367</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.65413412083588</v>
+        <v>0.65413412083587996</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>0.0052954540801893</v>
+        <v>5.2954540801893003E-3</v>
       </c>
       <c r="E15">
         <v>1604764</v>
@@ -971,78 +1066,78 @@
         <v>1049730.88828907</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.6503449977233788</v>
+        <v>0.65034499772337884</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>0.0046199506485558</v>
+        <v>4.6199506485557996E-3</v>
       </c>
       <c r="E16">
         <v>1413775</v>
       </c>
       <c r="F16">
-        <v>919441.4991563699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>919441.49915636994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.6478538308851013</v>
+        <v>0.64785383088510129</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>0.0028840320436339</v>
+        <v>2.8840320436338998E-3</v>
       </c>
       <c r="E17">
         <v>895389</v>
       </c>
       <c r="F17">
-        <v>580081.19378238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>580081.19378237997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.644716646592161</v>
+        <v>0.64471664659216099</v>
       </c>
       <c r="C18" t="s">
         <v>97</v>
       </c>
       <c r="D18">
-        <v>0.0034684551834862</v>
+        <v>3.4684551834861998E-3</v>
       </c>
       <c r="E18">
         <v>1066362</v>
       </c>
       <c r="F18">
-        <v>687501.33269331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>687501.33269330999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.6443886535347844</v>
+        <v>0.64438865353478436</v>
       </c>
       <c r="C19" t="s">
         <v>97</v>
       </c>
       <c r="D19">
-        <v>0.009094366527922299</v>
+        <v>9.0943665279222992E-3</v>
       </c>
       <c r="E19">
         <v>2776755</v>
@@ -1051,38 +1146,38 @@
         <v>1789309.41564598</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.6443132819465361</v>
+        <v>0.64431328194653614</v>
       </c>
       <c r="C20" t="s">
         <v>97</v>
       </c>
       <c r="D20">
-        <v>0.004749248594749</v>
+        <v>4.7492485947490002E-3</v>
       </c>
       <c r="E20">
         <v>1449015</v>
       </c>
       <c r="F20">
-        <v>933619.61023976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>933619.61023976002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.6437970867048994</v>
+        <v>0.64379708670489944</v>
       </c>
       <c r="C21" t="s">
         <v>97</v>
       </c>
       <c r="D21">
-        <v>0.0074260854472703</v>
+        <v>7.4260854472702996E-3</v>
       </c>
       <c r="E21">
         <v>2301778</v>
@@ -1091,138 +1186,138 @@
         <v>1481877.97064143</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0.642775621307374</v>
+        <v>0.64277562130737398</v>
       </c>
       <c r="C22" t="s">
         <v>97</v>
       </c>
       <c r="D22">
-        <v>0.0037625020999731</v>
+        <v>3.7625020999731001E-3</v>
       </c>
       <c r="E22">
         <v>1126403</v>
       </c>
       <c r="F22">
-        <v>724024.38816749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>724024.38816749002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0.6419731529930056</v>
+        <v>0.64197315299300561</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D23">
-        <v>0.0042328629475981</v>
+        <v>4.2328629475981002E-3</v>
       </c>
       <c r="E23">
         <v>1267455</v>
       </c>
       <c r="F23">
-        <v>813672.0826267499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>813672.08262674988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.6405482272049988</v>
+        <v>0.64054822720499882</v>
       </c>
       <c r="C24" t="s">
         <v>97</v>
       </c>
       <c r="D24">
-        <v>0.0050181974531554</v>
+        <v>5.0181974531553998E-3</v>
       </c>
       <c r="E24">
         <v>1532672</v>
       </c>
       <c r="F24">
-        <v>981750.33248674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>981750.33248673996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0.6399601668295001</v>
+        <v>0.63996016682950008</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>0.0063126678270546</v>
+        <v>6.3126678270546003E-3</v>
       </c>
       <c r="E25">
         <v>1933386</v>
       </c>
       <c r="F25">
-        <v>1237290.02710582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>1237290.0271058199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.6378781219038225</v>
+        <v>0.63787812190382254</v>
       </c>
       <c r="C26" t="s">
         <v>97</v>
       </c>
       <c r="D26">
-        <v>0.0045711981392036</v>
+        <v>4.5711981392036003E-3</v>
       </c>
       <c r="E26">
         <v>1375249</v>
       </c>
       <c r="F26">
-        <v>877241.24927011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>877241.24927011004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0.6377455574475782</v>
+        <v>0.63774555744757822</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>0.0035895164162861</v>
+        <v>3.5895164162860998E-3</v>
       </c>
       <c r="E27">
         <v>1103501</v>
       </c>
       <c r="F27">
-        <v>703752.86038896</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>703752.86038895999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.6357247498498813</v>
+        <v>0.63572474984988125</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D28">
-        <v>0.0126195556890893</v>
+        <v>1.2619555689089301E-2</v>
       </c>
       <c r="E28">
         <v>3873601</v>
@@ -1231,18 +1326,18 @@
         <v>2462544.02674325</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0.6353694605888077</v>
+        <v>0.63536946058880772</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D29">
-        <v>0.009892726175487599</v>
+        <v>9.8927261754875994E-3</v>
       </c>
       <c r="E29">
         <v>3074450</v>
@@ -1251,58 +1346,58 @@
         <v>1953411.63810726</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.6343994861657445</v>
+        <v>0.63439948616574449</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D30">
-        <v>0.0044660851016345</v>
+        <v>4.4660851016345001E-3</v>
       </c>
       <c r="E30">
         <v>1342464</v>
       </c>
       <c r="F30">
-        <v>851658.47179601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>851658.47179601004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>0.6325694048565973</v>
+        <v>0.63256940485659729</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31">
-        <v>0.0191660772895951</v>
+        <v>1.9166077289595101E-2</v>
       </c>
       <c r="E31">
         <v>5734272</v>
       </c>
       <c r="F31">
-        <v>3627325.02632585</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>3627325.0263258498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>0.6317842810935206</v>
+        <v>0.63178428109352058</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32">
-        <v>0.0097524289804303</v>
+        <v>9.7524289804302999E-3</v>
       </c>
       <c r="E32">
         <v>2971366</v>
@@ -1311,7 +1406,7 @@
         <v>1877262.33217573</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1319,50 +1414,50 @@
         <v>0.6262650828518368</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D33">
-        <v>0.0033375746788927</v>
+        <v>3.3375746788927001E-3</v>
       </c>
       <c r="E33">
         <v>999945</v>
       </c>
       <c r="F33">
-        <v>626230.63827228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>626230.63827227999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.6259237530896755</v>
+        <v>0.62592375308967552</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34">
-        <v>0.0040643633372947</v>
+        <v>4.0643633372946996E-3</v>
       </c>
       <c r="E34">
         <v>1228307</v>
       </c>
       <c r="F34">
-        <v>768826.5273863201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>768826.52738632006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B35">
-        <v>0.6257704215712684</v>
+        <v>0.62577042157126839</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35">
-        <v>0.007649966645895</v>
+        <v>7.649966645895E-3</v>
       </c>
       <c r="E35">
         <v>2317128</v>
@@ -1371,18 +1466,18 @@
         <v>1449990.16539459</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.6240872931952758</v>
+        <v>0.62408729319527578</v>
       </c>
       <c r="C36" t="s">
         <v>97</v>
       </c>
       <c r="D36">
-        <v>0.0053201386763635</v>
+        <v>5.3201386763635002E-3</v>
       </c>
       <c r="E36">
         <v>1629875</v>
@@ -1391,18 +1486,18 @@
         <v>1017184.27699665</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0.6232985619827812</v>
+        <v>0.62329856198278122</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>0.0087570146440425</v>
+        <v>8.7570146440425004E-3</v>
       </c>
       <c r="E37">
         <v>2595183</v>
@@ -1411,238 +1506,238 @@
         <v>1617573.83198216</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.6227034285350965</v>
+        <v>0.62270342853509653</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38">
-        <v>0.0106944403554806</v>
+        <v>1.0694440355480599E-2</v>
       </c>
       <c r="E38">
         <v>3271683</v>
       </c>
       <c r="F38">
-        <v>2037288.22117999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>2037288.2211799901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.619954040722014</v>
+        <v>0.61995404072201399</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D39">
-        <v>0.0038327174239045</v>
+        <v>3.8327174239044999E-3</v>
       </c>
       <c r="E39">
         <v>1171127</v>
       </c>
       <c r="F39">
-        <v>726044.91584865</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>726044.91584865004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.6198955300337659</v>
+        <v>0.61989553003376585</v>
       </c>
       <c r="C40" t="s">
         <v>97</v>
       </c>
       <c r="D40">
-        <v>0.0085217184727353</v>
+        <v>8.5217184727352999E-3</v>
       </c>
       <c r="E40">
         <v>2629580</v>
       </c>
       <c r="F40">
-        <v>1630064.88786619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>1630064.8878661899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.6197874064306533</v>
+        <v>0.61978740643065333</v>
       </c>
       <c r="C41" t="s">
         <v>97</v>
       </c>
       <c r="D41">
-        <v>0.0095068675896877</v>
+        <v>9.5068675896877002E-3</v>
       </c>
       <c r="E41">
         <v>2964069</v>
       </c>
       <c r="F41">
-        <v>1837092.6379915</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1837092.6379915001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.6193846808242121</v>
+        <v>0.61938468082421205</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D42">
-        <v>0.0242858529189109</v>
+        <v>2.4285852918910899E-2</v>
       </c>
       <c r="E42">
         <v>7357646</v>
       </c>
       <c r="F42">
-        <v>4557213.21932754</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>4557213.2193275401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.6168276316646598</v>
+        <v>0.61682763166465981</v>
       </c>
       <c r="C43" t="s">
         <v>97</v>
       </c>
       <c r="D43">
-        <v>0.0172606025274948</v>
+        <v>1.7260602527494801E-2</v>
       </c>
       <c r="E43">
         <v>5418146</v>
       </c>
       <c r="F43">
-        <v>3342062.16519335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>3342062.1651933501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.6166645507798627</v>
+        <v>0.61666455077986271</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D44">
-        <v>0.0048491493292023</v>
+        <v>4.8491493292022996E-3</v>
       </c>
       <c r="E44">
         <v>1499546</v>
       </c>
       <c r="F44">
-        <v>924716.86046374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>924716.86046373995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0.6165432410933875</v>
+        <v>0.61654324109338754</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>0.0177020609371213</v>
+        <v>1.7702060937121299E-2</v>
       </c>
       <c r="E45">
         <v>5469662</v>
       </c>
       <c r="F45">
-        <v>3372283.13716534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>3372283.1371653401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.6152239244212298</v>
+        <v>0.61522392442122975</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46">
-        <v>0.0167026581089819</v>
+        <v>1.6702658108981899E-2</v>
       </c>
       <c r="E46">
         <v>5060911</v>
       </c>
       <c r="F46">
-        <v>3113593.52656657</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>3113593.5265665702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.6147349132360123</v>
+        <v>0.61473491323601226</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47">
-        <v>0.0118387489072944</v>
+        <v>1.1838748907294401E-2</v>
       </c>
       <c r="E47">
         <v>3562403</v>
       </c>
       <c r="F47">
-        <v>2189933.49911671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>2189933.4991167099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.6140719821662254</v>
+        <v>0.61407198216622538</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D48">
-        <v>0.0072399174576926</v>
+        <v>7.2399174576926002E-3</v>
       </c>
       <c r="E48">
         <v>2177165</v>
       </c>
       <c r="F48">
-        <v>1336936.02705293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1336936.0270529301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.6089725397478006</v>
+        <v>0.60897253974780063</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D49">
-        <v>0.0061020244291604</v>
+        <v>6.1020244291604001E-3</v>
       </c>
       <c r="E49">
         <v>1898815</v>
@@ -1651,98 +1746,98 @@
         <v>1156326.19306122</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.6073982383494064</v>
+        <v>0.60739823834940643</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D50">
-        <v>0.0104104978286894</v>
+        <v>1.04104978286894E-2</v>
       </c>
       <c r="E50">
         <v>3195093</v>
       </c>
       <c r="F50">
-        <v>1940693.85956252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1940693.8595625199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.6069587517097546</v>
+        <v>0.60695875170975455</v>
       </c>
       <c r="C51" t="s">
         <v>97</v>
       </c>
       <c r="D51">
-        <v>0.0098835098202259</v>
+        <v>9.8835098202258997E-3</v>
       </c>
       <c r="E51">
         <v>3077541</v>
       </c>
       <c r="F51">
-        <v>1867940.44369559</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>1867940.4436955899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0.605021612568587</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D52">
-        <v>0.0063120668214482</v>
+        <v>6.3120668214482001E-3</v>
       </c>
       <c r="E52">
         <v>1923836</v>
       </c>
       <c r="F52">
-        <v>1163962.3590375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1163962.3590375001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.6047641525375255</v>
+        <v>0.60476415253752547</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D53">
-        <v>0.0072499049689377</v>
+        <v>7.2499049689376998E-3</v>
       </c>
       <c r="E53">
         <v>2211497</v>
       </c>
       <c r="F53">
-        <v>1337434.10904428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1337434.1090442799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.6029313384027571</v>
+        <v>0.60293133840275714</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D54">
-        <v>0.0132592176828186</v>
+        <v>1.32592176828186E-2</v>
       </c>
       <c r="E54">
         <v>4145093</v>
@@ -1751,18 +1846,18 @@
         <v>2499206.4702939</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>0.6020187326490547</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>0.0104313115525338</v>
+        <v>1.04313115525338E-2</v>
       </c>
       <c r="E55">
         <v>3265629</v>
@@ -1771,178 +1866,178 @@
         <v>1965969.831882</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.6009487373194107</v>
+        <v>0.60094873731941068</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D56">
-        <v>0.0127475344726296</v>
+        <v>1.27475344726296E-2</v>
       </c>
       <c r="E56">
         <v>3813184</v>
       </c>
       <c r="F56">
-        <v>2291528.10996658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>2291528.1099665798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.6004181912298671</v>
+        <v>0.60041819122986706</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57">
-        <v>0.00821407145962</v>
+        <v>8.2140714596199999E-3</v>
       </c>
       <c r="E57">
         <v>2521744</v>
       </c>
       <c r="F57">
-        <v>1514100.97122477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>1514100.9712247699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.6002350953631281</v>
+        <v>0.60023509536312813</v>
       </c>
       <c r="C58" t="s">
         <v>97</v>
       </c>
       <c r="D58">
-        <v>0.009448453440406099</v>
+        <v>9.4484534404060995E-3</v>
       </c>
       <c r="E58">
         <v>2928429</v>
       </c>
       <c r="F58">
-        <v>1757745.86007915</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>1757745.8600791499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.5996824385153551</v>
+        <v>0.59968243851535508</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59">
-        <v>0.005113936620594</v>
+        <v>5.1139366205940002E-3</v>
       </c>
       <c r="E59">
         <v>1622260</v>
       </c>
       <c r="F59">
-        <v>972840.83270592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>972840.83270591998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.5995525830210101</v>
+        <v>0.59955258302101011</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D60">
-        <v>0.0053619986330021</v>
+        <v>5.3619986330021002E-3</v>
       </c>
       <c r="E60">
         <v>1621792</v>
       </c>
       <c r="F60">
-        <v>972349.58272281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>972349.58272280998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.5979758035473819</v>
+        <v>0.59797580354738189</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D61">
-        <v>0.0098610173677245</v>
+        <v>9.8610173677244999E-3</v>
       </c>
       <c r="E61">
         <v>3056846</v>
       </c>
       <c r="F61">
-        <v>1827919.9431706</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1827919.9431706001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.5976224657857448</v>
+        <v>0.59762246578574485</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62">
-        <v>0.0059724283395722</v>
+        <v>5.9724283395722003E-3</v>
       </c>
       <c r="E62">
         <v>1839815</v>
       </c>
       <c r="F62">
-        <v>1099514.7768896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>1099514.7768896001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.5973895566852925</v>
+        <v>0.59738955668529248</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63">
-        <v>0.0091760006853858</v>
+        <v>9.1760006853858003E-3</v>
       </c>
       <c r="E63">
         <v>2807578</v>
       </c>
       <c r="F63">
-        <v>1677217.77677938</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>1677217.7767793799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.5961595423504851</v>
+        <v>0.59615954235048507</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D64">
-        <v>0.0070896832544245</v>
+        <v>7.0896832544245E-3</v>
       </c>
       <c r="E64">
         <v>2183528</v>
@@ -1951,58 +2046,58 @@
         <v>1301731.05318947</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.5954983350792966</v>
+        <v>0.59549833507929661</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D65">
-        <v>0.0082255782347291</v>
+        <v>8.2255782347290998E-3</v>
       </c>
       <c r="E65">
         <v>2487370</v>
       </c>
       <c r="F65">
-        <v>1481224.69372619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>1481224.6937261899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.5952584579706597</v>
+        <v>0.59525845797065968</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D66">
-        <v>0.0125093369702542</v>
+        <v>1.2509336970254199E-2</v>
       </c>
       <c r="E66">
         <v>3821700</v>
       </c>
       <c r="F66">
-        <v>2274899.24882647</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>2274899.2488264702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.5951370222785103</v>
+        <v>0.59513702227851029</v>
       </c>
       <c r="C67" t="s">
         <v>97</v>
       </c>
       <c r="D67">
-        <v>0.009886246733693999</v>
+        <v>9.8862467336939992E-3</v>
       </c>
       <c r="E67">
         <v>3052692</v>
@@ -2011,18 +2106,18 @@
         <v>1816770.02681343</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.58889107793342</v>
+        <v>0.58889107793341999</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D68">
-        <v>0.008396657672615101</v>
+        <v>8.3966576726151008E-3</v>
       </c>
       <c r="E68">
         <v>2590749</v>
@@ -2031,38 +2126,38 @@
         <v>1525668.97126493</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.5883152969776477</v>
+        <v>0.58831529697764773</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D69">
-        <v>0.0074409641481301</v>
+        <v>7.4409641481300998E-3</v>
       </c>
       <c r="E69">
         <v>2306035</v>
       </c>
       <c r="F69">
-        <v>1356675.66586585</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1356675.6658658499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.588015972556333</v>
+        <v>0.58801597255633298</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D70">
-        <v>0.0120369218775889</v>
+        <v>1.20369218775889E-2</v>
       </c>
       <c r="E70">
         <v>3695927</v>
@@ -2071,58 +2166,58 @@
         <v>2173264.10940221</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.5875332621314863</v>
+        <v>0.58753326213148627</v>
       </c>
       <c r="C71" t="s">
         <v>97</v>
       </c>
       <c r="D71">
-        <v>0.0105582034873788</v>
+        <v>1.0558203487378799E-2</v>
       </c>
       <c r="E71">
         <v>3227091</v>
       </c>
       <c r="F71">
-        <v>1896023.30242516</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1896023.3024251601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.5839842918074488</v>
+        <v>0.58398429180744882</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D72">
-        <v>0.0245996801774658</v>
+        <v>2.4599680177465801E-2</v>
       </c>
       <c r="E72">
         <v>7527400</v>
       </c>
       <c r="F72">
-        <v>4395883.35815139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>4395883.3581513902</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.583109307439601</v>
+        <v>0.58310930743960099</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D73">
-        <v>0.0104143085263614</v>
+        <v>1.04143085263614E-2</v>
       </c>
       <c r="E73">
         <v>3306055</v>
@@ -2131,58 +2226,58 @@
         <v>1927791.44140723</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.5819190286633448</v>
+        <v>0.58191902866334477</v>
       </c>
       <c r="C74" t="s">
         <v>97</v>
       </c>
       <c r="D74">
-        <v>0.0189531862141897</v>
+        <v>1.8953186214189701E-2</v>
       </c>
       <c r="E74">
         <v>5963572</v>
       </c>
       <c r="F74">
-        <v>3470316.02560392</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>3470316.0256039202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.5796647264072771</v>
+        <v>0.57966472640727706</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D75">
-        <v>0.0126799558750661</v>
+        <v>1.2679955875066099E-2</v>
       </c>
       <c r="E75">
         <v>3901133</v>
       </c>
       <c r="F75">
-        <v>2261349.1931234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>2261349.1931234002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.57952020336305</v>
+        <v>0.57952020336304999</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D76">
-        <v>0.0108829297686989</v>
+        <v>1.0882929768698899E-2</v>
       </c>
       <c r="E76">
         <v>3381948</v>
@@ -2191,38 +2286,38 @@
         <v>1959907.19272326</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.5793383091799316</v>
+        <v>0.57933830917993157</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D77">
-        <v>0.0046558488682497</v>
+        <v>4.6558488682497002E-3</v>
       </c>
       <c r="E77">
         <v>1438380</v>
       </c>
       <c r="F77">
-        <v>833308.6371582299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>833308.63715822995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>0.5772777190654812</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D78">
-        <v>0.008394719253066301</v>
+        <v>8.3947192530663007E-3</v>
       </c>
       <c r="E78">
         <v>2530682</v>
@@ -2231,18 +2326,18 @@
         <v>1460906.33264007</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.5770939117755514</v>
+        <v>0.57709391177555136</v>
       </c>
       <c r="C79" t="s">
         <v>97</v>
       </c>
       <c r="D79">
-        <v>0.0105503246240565</v>
+        <v>1.0550324624056501E-2</v>
       </c>
       <c r="E79">
         <v>3265594</v>
@@ -2251,18 +2346,18 @@
         <v>1884554.41573077</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.5770355201128214</v>
+        <v>0.57703552011282144</v>
       </c>
       <c r="C80" t="s">
         <v>97</v>
       </c>
       <c r="D80">
-        <v>0.016747494000785</v>
+        <v>1.6747494000784999E-2</v>
       </c>
       <c r="E80">
         <v>5169052</v>
@@ -2271,38 +2366,38 @@
         <v>2982726.60931022</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.5769834502661884</v>
+        <v>0.57698345026618836</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D81">
-        <v>0.010994818324537</v>
+        <v>1.0994818324537E-2</v>
       </c>
       <c r="E81">
         <v>3369043</v>
       </c>
       <c r="F81">
-        <v>1943882.05423515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>1943882.0542351501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.5761168921217653</v>
+        <v>0.57611689212176531</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D82">
-        <v>0.0094565261651826</v>
+        <v>9.4565261651826001E-3</v>
       </c>
       <c r="E82">
         <v>3039945</v>
@@ -2311,18 +2406,18 @@
         <v>1751363.6656211</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.5748904042824938</v>
+        <v>0.57489040428249383</v>
       </c>
       <c r="C83" t="s">
         <v>97</v>
       </c>
       <c r="D83">
-        <v>0.0145490222393307</v>
+        <v>1.4549022239330699E-2</v>
       </c>
       <c r="E83">
         <v>4592002</v>
@@ -2331,58 +2426,58 @@
         <v>2639897.88624602</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.5746369582997433</v>
+        <v>0.57463695829974326</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84">
-        <v>0.0133905454610024</v>
+        <v>1.33905454610024E-2</v>
       </c>
       <c r="E84">
         <v>4135146</v>
       </c>
       <c r="F84">
-        <v>2376207.71956535</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>2376207.7195653501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.5745520337903421</v>
+        <v>0.57455203379034214</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D85">
-        <v>0.025007796093919</v>
+        <v>2.5007796093919E-2</v>
       </c>
       <c r="E85">
         <v>7645281</v>
       </c>
       <c r="F85">
-        <v>4392611.74744866</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>4392611.7474486604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.5650482780464159</v>
+        <v>0.56504827804641589</v>
       </c>
       <c r="C86" t="s">
         <v>97</v>
       </c>
       <c r="D86">
-        <v>0.0171682550580374</v>
+        <v>1.7168255058037402E-2</v>
       </c>
       <c r="E86">
         <v>5325120</v>
@@ -2391,38 +2486,38 @@
         <v>3008949.88639053</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.5604366641267957</v>
+        <v>0.56043666412679571</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D87">
-        <v>0.0312544143368946</v>
+        <v>3.1254414336894597E-2</v>
       </c>
       <c r="E87">
         <v>9615734</v>
       </c>
       <c r="F87">
-        <v>5389009.88609061</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>5389009.8860906102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.5575109079048152</v>
+        <v>0.55751090790481517</v>
       </c>
       <c r="C88" t="s">
         <v>97</v>
       </c>
       <c r="D88">
-        <v>0.0268033220456783</v>
+        <v>2.6803322045678299E-2</v>
       </c>
       <c r="E88">
         <v>8604940</v>
@@ -2431,84 +2526,84 @@
         <v>4797347.91186646</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.5560356243689747</v>
+        <v>0.55603562436897469</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D89">
-        <v>0.0263374089359291</v>
+        <v>2.6337408935929101E-2</v>
       </c>
       <c r="E89">
         <v>8092006</v>
       </c>
       <c r="F89">
-        <v>4499443.60860749</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>4499443.6086074896</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.5426681178939221</v>
+        <v>0.54266811789392211</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90">
-        <v>0.0281565329861536</v>
+        <v>2.8156532986153601E-2</v>
       </c>
       <c r="E90">
         <v>8742060</v>
       </c>
       <c r="F90">
-        <v>4744037.24671574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>4744037.2467157403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.5344468202200833</v>
+        <v>0.53444682022008327</v>
       </c>
       <c r="C91" t="s">
         <v>97</v>
       </c>
       <c r="D91">
-        <v>0.0259469988762913</v>
+        <v>2.5946998876291299E-2</v>
       </c>
       <c r="E91">
         <v>8121701</v>
       </c>
       <c r="F91">
-        <v>4340617.27422827</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>4340617.2742282702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.5310943827785714</v>
+        <v>0.53109438277857135</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D92">
-        <v>0.0438894638888991</v>
+        <v>4.3889463888899097E-2</v>
       </c>
       <c r="E92">
         <v>13407275</v>
       </c>
       <c r="F92">
-        <v>7120528.44086757</v>
+        <v>7120528.4408675702</v>
       </c>
     </row>
   </sheetData>

--- a/public/modified_brawler_data.xlsx
+++ b/public/modified_brawler_data.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28906"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443908C-4483-4956-BEAE-86C2007E7550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2870525B-DBB0-4640-9855-E29D589C592E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="111">
   <si>
     <t>Brawler</t>
   </si>
@@ -40,27 +56,66 @@
     <t>Wins Recorded</t>
   </si>
   <si>
+    <t>Class</t>
+  </si>
+  <si>
     <t>JAE-YONG</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
     <t>FINX</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Assasin</t>
+  </si>
+  <si>
     <t>LUMI</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Damage Dealer</t>
+  </si>
+  <si>
     <t>OLLIE</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
     <t>BUSTER</t>
   </si>
   <si>
+    <t>Marksmen</t>
+  </si>
+  <si>
     <t>JACKY</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
     <t>DRACO</t>
   </si>
   <si>
+    <t>Support</t>
+  </si>
+  <si>
     <t>DOUG</t>
   </si>
   <si>
@@ -124,6 +179,9 @@
     <t>NITA</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>CHUCK</t>
   </si>
   <si>
@@ -139,6 +197,9 @@
     <t>CLANCY</t>
   </si>
   <si>
+    <t xml:space="preserve"> P</t>
+  </si>
+  <si>
     <t>AMBER</t>
   </si>
   <si>
@@ -308,58 +369,13 @@
   </si>
   <si>
     <t>MORTIS</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Assasin</t>
-  </si>
-  <si>
-    <t>Damage Dealer</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>Marksmen</t>
-  </si>
-  <si>
-    <t>Artillery</t>
-  </si>
-  <si>
-    <t>Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,13 +752,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,18 +781,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0.77576361919352599</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>4.9973052643649996E-4</v>
@@ -785,18 +804,18 @@
         <v>111630.83327471001</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.7284909908111028</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1.08516742012939E-2</v>
@@ -808,18 +827,18 @@
         <v>2386111.7756495299</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.71922743180272741</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3.6316735920557702E-2</v>
@@ -831,18 +850,18 @@
         <v>7887567.2993544703</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.7177685088412028</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1.27390829165989E-2</v>
@@ -854,18 +873,18 @@
         <v>2704769.9429403399</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.66265387282635879</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>7.6664517722262E-3</v>
@@ -877,18 +896,18 @@
         <v>1509336.6659446899</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0.66186160436209018</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>7.9889687115430007E-3</v>
@@ -900,18 +919,18 @@
         <v>1633301.6936869</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0.660395606084072</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>3.8512463046844001E-3</v>
@@ -923,18 +942,18 @@
         <v>769769.66596810997</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0.66024056873872994</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>3.9009135234324001E-3</v>
@@ -945,16 +964,19 @@
       <c r="F9">
         <v>787287.36017828004</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>0.65815470204770832</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>8.9607225518944997E-3</v>
@@ -965,16 +987,19 @@
       <c r="F10">
         <v>1767548.16567575</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>0.65711836467305007</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>4.0200293169567001E-3</v>
@@ -985,16 +1010,19 @@
       <c r="F11">
         <v>790039.61036075</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>0.65664427335950726</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1.0391479672954101E-2</v>
@@ -1005,16 +1033,19 @@
       <c r="F12">
         <v>2061043.5262957001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0.65618518354509892</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>3.5821030778436002E-3</v>
@@ -1025,16 +1056,19 @@
       <c r="F13">
         <v>702833.38824332005</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>0.65423989378191183</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>1.0224540625907099E-2</v>
@@ -1045,16 +1079,19 @@
       <c r="F14">
         <v>2014040.22133367</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>0.65413412083587996</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>5.2954540801893003E-3</v>
@@ -1065,16 +1102,19 @@
       <c r="F15">
         <v>1049730.88828907</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>0.65034499772337884</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>4.6199506485557996E-3</v>
@@ -1085,16 +1125,19 @@
       <c r="F16">
         <v>919441.49915636994</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>0.64785383088510129</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>2.8840320436338998E-3</v>
@@ -1105,16 +1148,19 @@
       <c r="F17">
         <v>580081.19378237997</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>0.64471664659216099</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>3.4684551834861998E-3</v>
@@ -1125,16 +1171,19 @@
       <c r="F18">
         <v>687501.33269330999</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>0.64438865353478436</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>9.0943665279222992E-3</v>
@@ -1145,16 +1194,19 @@
       <c r="F19">
         <v>1789309.41564598</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>0.64431328194653614</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>4.7492485947490002E-3</v>
@@ -1165,16 +1217,19 @@
       <c r="F20">
         <v>933619.61023976002</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>0.64379708670489944</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>7.4260854472702996E-3</v>
@@ -1185,16 +1240,19 @@
       <c r="F21">
         <v>1481877.97064143</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>0.64277562130737398</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>3.7625020999731001E-3</v>
@@ -1205,16 +1263,19 @@
       <c r="F22">
         <v>724024.38816749002</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>0.64197315299300561</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>4.2328629475981002E-3</v>
@@ -1225,16 +1286,19 @@
       <c r="F23">
         <v>813672.08262674988</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>0.64054822720499882</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>5.0181974531553998E-3</v>
@@ -1245,16 +1309,19 @@
       <c r="F24">
         <v>981750.33248673996</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>0.63996016682950008</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>6.3126678270546003E-3</v>
@@ -1265,16 +1332,19 @@
       <c r="F25">
         <v>1237290.0271058199</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>0.63787812190382254</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>4.5711981392036003E-3</v>
@@ -1285,16 +1355,19 @@
       <c r="F26">
         <v>877241.24927011004</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>0.63774555744757822</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>3.5895164162860998E-3</v>
@@ -1305,16 +1378,19 @@
       <c r="F27">
         <v>703752.86038895999</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>0.63572474984988125</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>1.2619555689089301E-2</v>
@@ -1325,16 +1401,19 @@
       <c r="F28">
         <v>2462544.02674325</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>0.63536946058880772</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <v>9.8927261754875994E-3</v>
@@ -1345,16 +1424,19 @@
       <c r="F29">
         <v>1953411.63810726</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>0.63439948616574449</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>4.4660851016345001E-3</v>
@@ -1365,16 +1447,19 @@
       <c r="F30">
         <v>851658.47179601004</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>0.63256940485659729</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>1.9166077289595101E-2</v>
@@ -1385,16 +1470,19 @@
       <c r="F31">
         <v>3627325.0263258498</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0.63178428109352058</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>9.7524289804302999E-3</v>
@@ -1405,16 +1493,19 @@
       <c r="F32">
         <v>1877262.33217573</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>0.6262650828518368</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>3.3375746788927001E-3</v>
@@ -1425,16 +1516,19 @@
       <c r="F33">
         <v>626230.63827227999</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>0.62592375308967552</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>4.0643633372946996E-3</v>
@@ -1445,16 +1539,19 @@
       <c r="F34">
         <v>768826.52738632006</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>0.62577042157126839</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>7.649966645895E-3</v>
@@ -1465,16 +1562,19 @@
       <c r="F35">
         <v>1449990.16539459</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>0.62408729319527578</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>5.3201386763635002E-3</v>
@@ -1485,16 +1585,19 @@
       <c r="F36">
         <v>1017184.27699665</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>0.62329856198278122</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>8.7570146440425004E-3</v>
@@ -1505,16 +1608,19 @@
       <c r="F37">
         <v>1617573.83198216</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>0.62270342853509653</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>1.0694440355480599E-2</v>
@@ -1525,16 +1631,19 @@
       <c r="F38">
         <v>2037288.2211799901</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>0.61995404072201399</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>3.8327174239044999E-3</v>
@@ -1545,16 +1654,19 @@
       <c r="F39">
         <v>726044.91584865004</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>0.61989553003376585</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>8.5217184727352999E-3</v>
@@ -1565,16 +1677,19 @@
       <c r="F40">
         <v>1630064.8878661899</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B41">
         <v>0.61978740643065333</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>9.5068675896877002E-3</v>
@@ -1585,16 +1700,19 @@
       <c r="F41">
         <v>1837092.6379915001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>0.61938468082421205</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>2.4285852918910899E-2</v>
@@ -1605,16 +1723,19 @@
       <c r="F42">
         <v>4557213.2193275401</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>0.61682763166465981</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1.7260602527494801E-2</v>
@@ -1625,16 +1746,19 @@
       <c r="F43">
         <v>3342062.1651933501</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>0.61666455077986271</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D44">
         <v>4.8491493292022996E-3</v>
@@ -1645,16 +1769,19 @@
       <c r="F44">
         <v>924716.86046373995</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B45">
         <v>0.61654324109338754</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>1.7702060937121299E-2</v>
@@ -1665,16 +1792,19 @@
       <c r="F45">
         <v>3372283.1371653401</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>0.61522392442122975</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>1.6702658108981899E-2</v>
@@ -1685,16 +1815,19 @@
       <c r="F46">
         <v>3113593.5265665702</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <v>0.61473491323601226</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>1.1838748907294401E-2</v>
@@ -1705,16 +1838,19 @@
       <c r="F47">
         <v>2189933.4991167099</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>0.61407198216622538</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>7.2399174576926002E-3</v>
@@ -1725,16 +1861,19 @@
       <c r="F48">
         <v>1336936.0270529301</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>0.60897253974780063</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D49">
         <v>6.1020244291604001E-3</v>
@@ -1745,16 +1884,19 @@
       <c r="F49">
         <v>1156326.19306122</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B50">
         <v>0.60739823834940643</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>1.04104978286894E-2</v>
@@ -1765,16 +1907,19 @@
       <c r="F50">
         <v>1940693.8595625199</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B51">
         <v>0.60695875170975455</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>9.8835098202258997E-3</v>
@@ -1785,16 +1930,19 @@
       <c r="F51">
         <v>1867940.4436955899</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B52">
         <v>0.605021612568587</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D52">
         <v>6.3120668214482001E-3</v>
@@ -1805,16 +1953,19 @@
       <c r="F52">
         <v>1163962.3590375001</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B53">
         <v>0.60476415253752547</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>7.2499049689376998E-3</v>
@@ -1825,16 +1976,19 @@
       <c r="F53">
         <v>1337434.1090442799</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B54">
         <v>0.60293133840275714</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D54">
         <v>1.32592176828186E-2</v>
@@ -1845,16 +1999,19 @@
       <c r="F54">
         <v>2499206.4702939</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B55">
         <v>0.6020187326490547</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D55">
         <v>1.04313115525338E-2</v>
@@ -1865,16 +2022,19 @@
       <c r="F55">
         <v>1965969.831882</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>0.60094873731941068</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>1.27475344726296E-2</v>
@@ -1885,16 +2045,19 @@
       <c r="F56">
         <v>2291528.1099665798</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B57">
         <v>0.60041819122986706</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>8.2140714596199999E-3</v>
@@ -1905,16 +2068,19 @@
       <c r="F57">
         <v>1514100.9712247699</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B58">
         <v>0.60023509536312813</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>9.4484534404060995E-3</v>
@@ -1925,16 +2091,19 @@
       <c r="F58">
         <v>1757745.8600791499</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B59">
         <v>0.59968243851535508</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>5.1139366205940002E-3</v>
@@ -1945,16 +2114,19 @@
       <c r="F59">
         <v>972840.83270591998</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>0.59955258302101011</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D60">
         <v>5.3619986330021002E-3</v>
@@ -1965,16 +2137,19 @@
       <c r="F60">
         <v>972349.58272280998</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>0.59797580354738189</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <v>9.8610173677244999E-3</v>
@@ -1985,16 +2160,19 @@
       <c r="F61">
         <v>1827919.9431706001</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B62">
         <v>0.59762246578574485</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>5.9724283395722003E-3</v>
@@ -2005,16 +2183,19 @@
       <c r="F62">
         <v>1099514.7768896001</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B63">
         <v>0.59738955668529248</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <v>9.1760006853858003E-3</v>
@@ -2025,16 +2206,19 @@
       <c r="F63">
         <v>1677217.7767793799</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B64">
         <v>0.59615954235048507</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D64">
         <v>7.0896832544245E-3</v>
@@ -2045,16 +2229,19 @@
       <c r="F64">
         <v>1301731.05318947</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B65">
         <v>0.59549833507929661</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <v>8.2255782347290998E-3</v>
@@ -2065,16 +2252,19 @@
       <c r="F65">
         <v>1481224.6937261899</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B66">
         <v>0.59525845797065968</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>1.2509336970254199E-2</v>
@@ -2085,16 +2275,19 @@
       <c r="F66">
         <v>2274899.2488264702</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B67">
         <v>0.59513702227851029</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>9.8862467336939992E-3</v>
@@ -2105,16 +2298,19 @@
       <c r="F67">
         <v>1816770.02681343</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B68">
         <v>0.58889107793341999</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>8.3966576726151008E-3</v>
@@ -2125,16 +2321,19 @@
       <c r="F68">
         <v>1525668.97126493</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B69">
         <v>0.58831529697764773</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D69">
         <v>7.4409641481300998E-3</v>
@@ -2145,16 +2344,19 @@
       <c r="F69">
         <v>1356675.6658658499</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B70">
         <v>0.58801597255633298</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D70">
         <v>1.20369218775889E-2</v>
@@ -2165,16 +2367,19 @@
       <c r="F70">
         <v>2173264.10940221</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B71">
         <v>0.58753326213148627</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>1.0558203487378799E-2</v>
@@ -2185,16 +2390,19 @@
       <c r="F71">
         <v>1896023.3024251601</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B72">
         <v>0.58398429180744882</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D72">
         <v>2.4599680177465801E-2</v>
@@ -2205,16 +2413,19 @@
       <c r="F72">
         <v>4395883.3581513902</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B73">
         <v>0.58310930743960099</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D73">
         <v>1.04143085263614E-2</v>
@@ -2225,16 +2436,19 @@
       <c r="F73">
         <v>1927791.44140723</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B74">
         <v>0.58191902866334477</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>1.8953186214189701E-2</v>
@@ -2245,16 +2459,19 @@
       <c r="F74">
         <v>3470316.0256039202</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B75">
         <v>0.57966472640727706</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D75">
         <v>1.2679955875066099E-2</v>
@@ -2265,16 +2482,19 @@
       <c r="F75">
         <v>2261349.1931234002</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B76">
         <v>0.57952020336304999</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D76">
         <v>1.0882929768698899E-2</v>
@@ -2285,16 +2505,19 @@
       <c r="F76">
         <v>1959907.19272326</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B77">
         <v>0.57933830917993157</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D77">
         <v>4.6558488682497002E-3</v>
@@ -2305,16 +2528,19 @@
       <c r="F77">
         <v>833308.63715822995</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B78">
         <v>0.5772777190654812</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>8.3947192530663007E-3</v>
@@ -2325,16 +2551,19 @@
       <c r="F78">
         <v>1460906.33264007</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B79">
         <v>0.57709391177555136</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>1.0550324624056501E-2</v>
@@ -2345,16 +2574,19 @@
       <c r="F79">
         <v>1884554.41573077</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B80">
         <v>0.57703552011282144</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>1.6747494000784999E-2</v>
@@ -2365,16 +2597,19 @@
       <c r="F80">
         <v>2982726.60931022</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B81">
         <v>0.57698345026618836</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D81">
         <v>1.0994818324537E-2</v>
@@ -2385,16 +2620,19 @@
       <c r="F81">
         <v>1943882.0542351501</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B82">
         <v>0.57611689212176531</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D82">
         <v>9.4565261651826001E-3</v>
@@ -2405,16 +2643,19 @@
       <c r="F82">
         <v>1751363.6656211</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B83">
         <v>0.57489040428249383</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>1.4549022239330699E-2</v>
@@ -2425,16 +2666,19 @@
       <c r="F83">
         <v>2639897.88624602</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B84">
         <v>0.57463695829974326</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D84">
         <v>1.33905454610024E-2</v>
@@ -2445,16 +2689,19 @@
       <c r="F84">
         <v>2376207.7195653501</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B85">
         <v>0.57455203379034214</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>2.5007796093919E-2</v>
@@ -2465,16 +2712,19 @@
       <c r="F85">
         <v>4392611.7474486604</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B86">
         <v>0.56504827804641589</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>1.7168255058037402E-2</v>
@@ -2485,16 +2735,19 @@
       <c r="F86">
         <v>3008949.88639053</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B87">
         <v>0.56043666412679571</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <v>3.1254414336894597E-2</v>
@@ -2505,16 +2758,19 @@
       <c r="F87">
         <v>5389009.8860906102</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B88">
         <v>0.55751090790481517</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>2.6803322045678299E-2</v>
@@ -2525,16 +2781,19 @@
       <c r="F88">
         <v>4797347.91186646</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B89">
         <v>0.55603562436897469</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D89">
         <v>2.6337408935929101E-2</v>
@@ -2545,16 +2804,19 @@
       <c r="F89">
         <v>4499443.6086074896</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B90">
         <v>0.54266811789392211</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D90">
         <v>2.8156532986153601E-2</v>
@@ -2565,16 +2827,19 @@
       <c r="F90">
         <v>4744037.2467157403</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B91">
         <v>0.53444682022008327</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>2.5946998876291299E-2</v>
@@ -2585,16 +2850,19 @@
       <c r="F91">
         <v>4340617.2742282702</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B92">
         <v>0.53109438277857135</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D92">
         <v>4.3889463888899097E-2</v>
@@ -2604,6 +2872,9 @@
       </c>
       <c r="F92">
         <v>7120528.4408675702</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
